--- a/biology/Mycologie/Morchella_crassipes/Morchella_crassipes.xlsx
+++ b/biology/Mycologie/Morchella_crassipes/Morchella_crassipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morille à pied épais
-Morchella crassipes, la Morille à pied épais[1], est une espèce de champignons ascomycètes, excellent comestible, de la famille des Morchellaceae (ordre des Pezizales).
+Morchella crassipes, la Morille à pied épais, est une espèce de champignons ascomycètes, excellent comestible, de la famille des Morchellaceae (ordre des Pezizales).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau de 25 à 30 cm de haut ; ressemble fortement à Morchella esculenta mais en plus puissant, moins fragile et au pied énorme, dilaté à la base, rétréci au sommet.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Champignon rare, tardif, sous forêts de feuillus et taillis, reconnaissable à ses sporophores de grande taille et surtout son pied obèse, claviforme.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (11 février 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (11 février 2023) :
 Morchella crassipes var. crassipes ;
 Morchella crassipes var. crispa (Krombh.) Krombh., 1834.</t>
         </is>
@@ -606,11 +624,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Morchella crassipes (Vent.) Pers., 1801[2].
-L'espèce a été initialement classée dans le genre Morchella sous le basionyme Morchella semilibera DC., 1805[2].
-Morchella crassipes a pour synonymes[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Morchella crassipes (Vent.) Pers., 1801.
+L'espèce a été initialement classée dans le genre Morchella sous le basionyme Morchella semilibera DC., 1805.
+Morchella crassipes a pour synonymes :
 Helvella hybrida Sowerby, 1799 ;
 Mitrophora semilibera (DC.) Lév., 1846 ;
 Morchella gigas Pers., 1801 ;
@@ -652,7 +672,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(la) C. H. Persoon, Synopsis methodica fungorum, Göttingen, 1801, 706 p. (DOI 10.5962/BHL.TITLE.166151, lire en ligne)</t>
         </is>
